--- a/UnitedCargo/Test.xlsx
+++ b/UnitedCargo/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>WONumber</t>
   </si>
@@ -35,31 +35,37 @@
     <t>Waybill Number</t>
   </si>
   <si>
-    <t>016-44322084</t>
-  </si>
-  <si>
-    <t>T040383938</t>
-  </si>
-  <si>
-    <t>016-20705171</t>
-  </si>
-  <si>
-    <t>016-38482054</t>
-  </si>
-  <si>
-    <t>T040383933</t>
-  </si>
-  <si>
-    <t>016-44257286</t>
-  </si>
-  <si>
-    <t>T040383932</t>
-  </si>
-  <si>
-    <t>016-56080205</t>
-  </si>
-  <si>
-    <t>016-39088221</t>
+    <t>016-04806675</t>
+  </si>
+  <si>
+    <t>016-04806690</t>
+  </si>
+  <si>
+    <t>016-04806701</t>
+  </si>
+  <si>
+    <t>016-04806664</t>
+  </si>
+  <si>
+    <t>016-04806620</t>
+  </si>
+  <si>
+    <t>016-09052632</t>
+  </si>
+  <si>
+    <t>016-03902640</t>
+  </si>
+  <si>
+    <t>016-06111265</t>
+  </si>
+  <si>
+    <t>016-42999471</t>
+  </si>
+  <si>
+    <t>T10116240</t>
+  </si>
+  <si>
+    <t>016-40209153</t>
   </si>
 </sst>
 </file>
@@ -406,110 +412,110 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>2751405193</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2751405193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>211083814</v>
+        <v>2751405192</v>
       </c>
       <c r="C3">
-        <v>211083814</v>
+        <v>2751405192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2751405191</v>
+      </c>
+      <c r="C4">
+        <v>2751405191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2751405181</v>
+      </c>
+      <c r="C5">
+        <v>2751405181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2052895518</v>
+        <v>2751404866</v>
       </c>
       <c r="C6">
-        <v>2052895518</v>
+        <v>2751404866</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2052896547</v>
+        <v>2740146181</v>
       </c>
       <c r="C7">
-        <v>2052896547</v>
+        <v>2740146181</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2052896538</v>
+        <v>220440928</v>
       </c>
       <c r="C8">
-        <v>2052896538</v>
+        <v>220440928</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>2052896541</v>
+        <v>2540188544</v>
       </c>
       <c r="C9">
-        <v>2052896541</v>
+        <v>2540188544</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>2052896548</v>
-      </c>
-      <c r="C10">
-        <v>2052896548</v>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>2052896540</v>
+        <v>2340126962</v>
       </c>
       <c r="C11">
-        <v>2052896540</v>
+        <v>2340126962</v>
       </c>
     </row>
   </sheetData>
